--- a/biology/Biologie cellulaire et moléculaire/Prothrombinase/Prothrombinase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Prothrombinase/Prothrombinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le complexe prothrombinase est un complexe enzymatique formé à la surface des plaquettes, et composé d'une enzyme, le facteur Xa ; d'un cofacteur, le Va ; de phospholipides, le Xa et le Va étant reliés aux phospholipides par le calcium Ca++.  Ce complexe est 100 000 fois plus actif que l'enzyme (Xa) seul.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par rapport à Xa seul, le km de est diminué de 100 fois, et le Kcat de 3 000 fois : activation x 100 000.
 S'il y a une présence de Va au lieu de V : Kcat est multiplié par 700.
@@ -520,7 +534,7 @@
 déplétion du substrat
 inactivation du Va
 nombre de sites par plaquette
-La fin de l'activité de la prothrombinase est due à l'inactivation du Xa[1].
+La fin de l'activité de la prothrombinase est due à l'inactivation du Xa.
 </t>
         </is>
       </c>
